--- a/peringkat_tes.xlsx
+++ b/peringkat_tes.xlsx
@@ -462,32 +462,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
